--- a/Manual Testing of Pickaboo.xlsx
+++ b/Manual Testing of Pickaboo.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dipa\SQA\1.MANUAL TESTING\Working Projects on Manual Testing\Manual Testing of Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5047BE1F-7F05-4728-9F5B-F629D192F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F840584-D0FA-4962-BA3A-EFCF669D465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{E1E52708-A689-4563-93BF-4E74A66FDF76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E1E52708-A689-4563-93BF-4E74A66FDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Matrix" sheetId="3" r:id="rId2"/>
+    <sheet name="Test Report" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="224">
   <si>
     <t>Product Name</t>
   </si>
@@ -345,9 +343,6 @@
     <t>Check mobile number field with valid number</t>
   </si>
   <si>
-    <t>01793527440</t>
-  </si>
-  <si>
     <t>user can use this number</t>
   </si>
   <si>
@@ -644,12 +639,108 @@
   <si>
     <t>USER STORY</t>
   </si>
+  <si>
+    <t>Test Metrics</t>
+  </si>
+  <si>
+    <t>#SL</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Result (%)</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Executed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Executed / Total no. of Test Cases Written) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Not Executed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases not Executed / Total no. of Test Cases Written) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Passed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Passed / Total no. of Test Cases Executed) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Failed</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Failed / Total no. of Test Cases Executed) * 100</t>
+  </si>
+  <si>
+    <t>Percentage of Test Cases Blocked</t>
+  </si>
+  <si>
+    <t>(No. of Test Cases Blocked / Total no. of Test Cases Executed) * 100</t>
+  </si>
+  <si>
+    <t>Defect Density</t>
+  </si>
+  <si>
+    <t>No. of Defects found / Size (No. of Requirements)</t>
+  </si>
+  <si>
+    <t>Defect Removal Efficiency (DRE)</t>
+  </si>
+  <si>
+    <t>(Fixed Defects / (Fixed Defects + Missed Defects)) * 100</t>
+  </si>
+  <si>
+    <t>Defect Leakage</t>
+  </si>
+  <si>
+    <t>(No. of Defects found in UAT/ No. of Defects found in Testing) * 100</t>
+  </si>
+  <si>
+    <t>Defect Rejection Ratio</t>
+  </si>
+  <si>
+    <t>(No. of Defects Rejected/ Total no. of Defects Raised) * 100</t>
+  </si>
+  <si>
+    <t>Defect Age</t>
+  </si>
+  <si>
+    <t>Fixed date - Reported date</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>No. of complaints per Period of Time</t>
+  </si>
+  <si>
+    <t>(34/34)*100 = 100</t>
+  </si>
+  <si>
+    <t>(0/34)*100 = 0</t>
+  </si>
+  <si>
+    <t>(27/34)*100 = 87.09</t>
+  </si>
+  <si>
+    <t>(7/34)*100 = 12.90</t>
+  </si>
+  <si>
+    <t>01793527330</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,8 +861,39 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,8 +1008,38 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFB6DDE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1183,22 +1335,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="12" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1214,21 +1385,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1238,9 +1397,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,18 +1418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1295,9 +1445,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1307,32 +1454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1350,67 +1475,159 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1486,6 +1703,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pickaboo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> TestCases</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1605,78 +1852,55 @@
             </c:extLst>
           </c:dLbls>
           <c:val>
-            <c:numRef>
-              <c:f>'C:\Users\dipag\OneDrive\Desktop\SQA\1.MANUAL TESTING\Sample work\[Test Case of Pickaboo.xlsx]test matrix'!$C$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>34</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'C:\Users\dipag\OneDrive\Desktop\SQA\1.MANUAL TESTING\Sample work\[Test Case of Pickaboo.xlsx]test matrix'!$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
+                  <c:v>#REF!</c:v>
                 </c15:tx>
               </c15:filteredSeriesTitle>
             </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'C:\Users\dipag\OneDrive\Desktop\SQA\1.MANUAL TESTING\Sample work\[Test Case of Pickaboo.xlsx]test matrix'!$C$10:$G$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>PASS</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>FAIL</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Not Executed</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Out Of Scope</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Total TC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                  <c:strLit>
+                    <c:ptCount val="5"/>
+                    <c:pt idx="0">
+                      <c:v>PASS</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>FAIL</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>Not Executed</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>Out Of Scope</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>Total TC</c:v>
+                    </c:pt>
+                  </c:strLit>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -2439,25 +2663,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TestCase"/>
-      <sheetName val="Report"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1">
-          <cell r="B1"/>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2757,14 +2962,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96083904-D3CE-4A24-9416-0639A411B3CD}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="19.26953125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="22" style="39" customWidth="1"/>
+    <col min="1" max="2" width="19.26953125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="22" style="28" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.453125" customWidth="1"/>
     <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
@@ -2775,1095 +2980,1095 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="3">
         <v>44934</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="8">
         <f>COUNTIF(H7:H40, "PASS")</f>
         <v>27</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="10">
         <f>COUNTIF(H7:H32, "Fail")</f>
         <v>7</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="11">
         <f>COUNTIF(I7:I16, "WARNING")</f>
         <v>0</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="17" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="12">
         <f>SUM(J2:J3:J4)</f>
         <v>34</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="80.150000000000006" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="83.25" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="17">
         <v>12345</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="72.5">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:16" ht="72.5">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="72.5">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="72.5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="72.5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:16" ht="72.5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:16" ht="72.5">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:16" ht="72.5">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="72.5">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="72.5">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="72.5">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="17">
         <v>11111111111</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="72.5">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="24">
         <v>123456789123</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="72.5">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="G21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="72.5">
+      <c r="A22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="F22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" ht="72.5">
-      <c r="A22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="24" t="s">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="72.5">
+      <c r="A23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="26">
+      <c r="G23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="72.5">
+      <c r="A24" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="72.5">
+      <c r="A25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="72.5">
+      <c r="A26" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="72.5">
+      <c r="A27" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="17">
         <v>123456789</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="H27" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" ht="72.5">
-      <c r="A23" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" ht="72.5">
+      <c r="A28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F28" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="27" t="s">
+      <c r="H28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="72.5">
+      <c r="A29" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" ht="72.5">
+      <c r="A30" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="72.5">
+      <c r="A31" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="72.5">
+      <c r="A32" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" ht="72.5">
-      <c r="A24" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="30" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="72.5">
+      <c r="A33" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="27">
+        <v>123456789</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" ht="72.5">
-      <c r="A25" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="30" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="72.5">
+      <c r="A34" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="27">
+        <v>1793527440</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="72.5">
-      <c r="A26" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="30" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="72.5">
+      <c r="A35" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="27">
+        <v>12345678912</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="72.5">
-      <c r="A27" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="26">
+    </row>
+    <row r="36" spans="1:8" ht="72.5">
+      <c r="A36" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="59"/>
+      <c r="C36" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="72.5">
+      <c r="A37" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="27">
+        <v>1571705559</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="72.5">
+      <c r="A38" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="72.5">
+      <c r="A39" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="27">
         <v>123456789</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="30" t="s">
+      <c r="E39" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="72.5">
-      <c r="A28" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="72.5">
-      <c r="A29" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="26">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="72.5">
-      <c r="A30" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" ht="72.5">
-      <c r="A31" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" ht="72.5">
-      <c r="A32" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="72.5">
-      <c r="A33" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="37" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="72.5">
+      <c r="A40" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="38">
-        <v>123456789</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="72.5">
-      <c r="A34" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="38">
-        <v>1793527440</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="72.5">
-      <c r="A35" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="38">
-        <v>12345678912</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="72.5">
-      <c r="A36" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="72.5">
-      <c r="A37" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="38">
-        <v>1571705559</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="72.5">
-      <c r="A38" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="72.5">
-      <c r="A39" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="38">
-        <v>123456789</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="72.5">
-      <c r="A40" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="38" t="s">
+      <c r="F40" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="G40" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3905,11 +4110,324 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD58A6C-B74E-48BE-A56C-49F2B81C3177}">
+  <dimension ref="B2:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" thickBot="1"/>
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B5" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="92" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B6" s="89">
+        <v>1</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="92" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B7" s="89">
+        <v>2</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="95" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B8" s="89">
+        <v>3</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="95" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B9" s="89">
+        <v>4</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B10" s="89">
+        <v>5</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="95" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="89">
+        <v>6</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="95" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B12" s="89">
+        <v>7</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="95" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B13" s="89">
+        <v>8</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B14" s="89">
+        <v>9</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B15" s="89">
+        <v>10</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B16" s="89">
+        <v>11</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="96"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="96"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="96"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="96"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="96"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="96"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="96"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="96"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="96"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="96"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="96"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="96"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="96"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="96"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="96"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="96"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="96"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="96"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="96"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="96"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="96"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="96"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="96"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="96"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="96"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="96"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="96"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="96"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="96"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="96"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="96"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="96"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB33796-B33C-4B30-9397-AD6331164DA7}">
   <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3925,305 +4443,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" thickBot="1">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="2:16" ht="15" thickBot="1">
+      <c r="B2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="K1" s="47"/>
-    </row>
-    <row r="2" spans="2:16" ht="15" thickBot="1">
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+    </row>
+    <row r="3" spans="2:16" ht="16" thickBot="1">
+      <c r="B3" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="2:16" ht="16" thickBot="1">
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="I3" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="I3" s="53" t="s">
+      <c r="J3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="54" t="s">
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1">
+      <c r="B4" s="30" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1">
-      <c r="B4" s="48" t="s">
+      <c r="C4" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="I4" s="34">
+        <v>27</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1">
+      <c r="B5" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="I4" s="55">
+      <c r="C5" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="I5" s="34">
+        <v>7</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1">
+      <c r="B6" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1">
+      <c r="B7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="I8" s="34">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1">
+      <c r="B9" s="81"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="2:16" ht="46.5">
+      <c r="B10" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.5">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47">
         <v>27</v>
       </c>
-      <c r="J4" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1">
-      <c r="B5" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="I5" s="55">
+      <c r="D11" s="48">
         <v>7</v>
       </c>
-      <c r="J5" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1">
-      <c r="B6" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1">
-      <c r="B7" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="I7" s="55">
+      <c r="E11" s="49">
         <v>0</v>
       </c>
-      <c r="J7" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="P7" s="57"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="I8" s="55">
+      <c r="F11" s="50">
         <v>0</v>
       </c>
-      <c r="J8" s="60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="2:16" ht="46.5">
-      <c r="B10" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="69" t="s">
+      <c r="G11" s="51">
+        <v>34</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.5">
-      <c r="B11" s="71"/>
-      <c r="C11" s="72">
-        <v>27</v>
-      </c>
-      <c r="D11" s="73">
-        <v>7</v>
-      </c>
-      <c r="E11" s="74">
-        <f>[1]TestCase!B1</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="75">
-        <v>0</v>
-      </c>
-      <c r="G11" s="76">
-        <v>34</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="81" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="84" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85" t="s">
+      <c r="G15" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="85" t="s">
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="73" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="86" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
+      <c r="G16" s="57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>191</v>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="C2:G2"/>
@@ -4231,6 +4743,11 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Manual Testing of Pickaboo.xlsx
+++ b/Manual Testing of Pickaboo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dipa\SQA\1.MANUAL TESTING\Working Projects on Manual Testing\Manual Testing of Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F840584-D0FA-4962-BA3A-EFCF669D465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1A052-3744-4405-9210-CB33959B2D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E1E52708-A689-4563-93BF-4E74A66FDF76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{E1E52708-A689-4563-93BF-4E74A66FDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Matrix" sheetId="3" r:id="rId2"/>
-    <sheet name="Test Report" sheetId="2" r:id="rId3"/>
+    <sheet name="Test Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="223">
   <si>
     <t>Product Name</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Check name field with valid name</t>
-  </si>
-  <si>
-    <t>Yusuf Ahmed</t>
   </si>
   <si>
     <t>user can use this name</t>
@@ -1521,6 +1518,38 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1565,59 +1594,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1628,6 +1611,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1722,12 +1719,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pickaboo</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> TestCases</a:t>
+              <a:t>TestCases</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2962,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96083904-D3CE-4A24-9416-0639A411B3CD}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2980,11 +2973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2998,20 +2991,20 @@
         <v>3</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3037,11 +3030,11 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -3065,11 +3058,11 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -3091,16 +3084,16 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
@@ -3146,7 +3139,7 @@
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -3179,7 +3172,7 @@
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="16" t="s">
         <v>39</v>
       </c>
@@ -3210,7 +3203,7 @@
       <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="16" t="s">
         <v>43</v>
       </c>
@@ -3238,7 +3231,7 @@
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="16" t="s">
         <v>48</v>
       </c>
@@ -3266,7 +3259,7 @@
       <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="16" t="s">
         <v>55</v>
       </c>
@@ -3294,7 +3287,7 @@
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="16" t="s">
         <v>60</v>
       </c>
@@ -3322,7 +3315,7 @@
       <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
@@ -3350,21 +3343,21 @@
       <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="16" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>53</v>
@@ -3376,23 +3369,23 @@
     </row>
     <row r="15" spans="1:16" ht="72.5">
       <c r="A15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>53</v>
@@ -3404,23 +3397,23 @@
     </row>
     <row r="16" spans="1:16" ht="72.5">
       <c r="A16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>53</v>
@@ -3432,23 +3425,23 @@
     </row>
     <row r="17" spans="1:13" ht="72.5">
       <c r="A17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>53</v>
@@ -3460,11 +3453,11 @@
     </row>
     <row r="18" spans="1:13" ht="72.5">
       <c r="A18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -3473,10 +3466,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>53</v>
@@ -3488,11 +3481,11 @@
     </row>
     <row r="19" spans="1:13" ht="72.5">
       <c r="A19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="D19" s="17">
         <v>11111111111</v>
@@ -3501,10 +3494,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>53</v>
@@ -3516,11 +3509,11 @@
     </row>
     <row r="20" spans="1:13" ht="72.5">
       <c r="A20" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="D20" s="24">
         <v>123456789123</v>
@@ -3529,10 +3522,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>53</v>
@@ -3544,23 +3537,23 @@
     </row>
     <row r="21" spans="1:13" ht="72.5">
       <c r="A21" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="D21" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>53</v>
@@ -3572,11 +3565,11 @@
     </row>
     <row r="22" spans="1:13" ht="72.5">
       <c r="A22" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="D22" s="17">
         <v>123456789</v>
@@ -3585,10 +3578,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>53</v>
@@ -3600,23 +3593,23 @@
     </row>
     <row r="23" spans="1:13" ht="72.5">
       <c r="A23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>37</v>
@@ -3628,23 +3621,23 @@
     </row>
     <row r="24" spans="1:13" ht="72.5">
       <c r="A24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>53</v>
@@ -3656,23 +3649,23 @@
     </row>
     <row r="25" spans="1:13" ht="72.5">
       <c r="A25" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>53</v>
@@ -3684,23 +3677,23 @@
     </row>
     <row r="26" spans="1:13" ht="72.5">
       <c r="A26" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>53</v>
@@ -3712,11 +3705,11 @@
     </row>
     <row r="27" spans="1:13" ht="72.5">
       <c r="A27" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="D27" s="17">
         <v>123456789</v>
@@ -3725,10 +3718,10 @@
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>53</v>
@@ -3740,23 +3733,23 @@
     </row>
     <row r="28" spans="1:13" ht="72.5">
       <c r="A28" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="D28" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>53</v>
@@ -3768,11 +3761,11 @@
     </row>
     <row r="29" spans="1:13" ht="72.5">
       <c r="A29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -3781,10 +3774,10 @@
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>53</v>
@@ -3796,23 +3789,23 @@
     </row>
     <row r="30" spans="1:13" ht="72.5">
       <c r="A30" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>53</v>
@@ -3824,23 +3817,23 @@
     </row>
     <row r="31" spans="1:13" ht="72.5">
       <c r="A31" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>53</v>
@@ -3852,23 +3845,23 @@
     </row>
     <row r="32" spans="1:13" ht="72.5">
       <c r="A32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>37</v>
@@ -3880,25 +3873,25 @@
     </row>
     <row r="33" spans="1:8" ht="72.5">
       <c r="A33" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="C33" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>136</v>
       </c>
       <c r="D33" s="27">
         <v>123456789</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="G33" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>53</v>
@@ -3906,23 +3899,23 @@
     </row>
     <row r="34" spans="1:8" ht="72.5">
       <c r="A34" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="26" t="s">
-        <v>141</v>
       </c>
       <c r="D34" s="27">
         <v>1793527440</v>
       </c>
       <c r="E34" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="G34" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>53</v>
@@ -3930,23 +3923,23 @@
     </row>
     <row r="35" spans="1:8" ht="72.5">
       <c r="A35" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="D35" s="27">
         <v>12345678912</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="G35" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>53</v>
@@ -3954,23 +3947,23 @@
     </row>
     <row r="36" spans="1:8" ht="72.5">
       <c r="A36" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="71"/>
+      <c r="C36" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="E36" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="G36" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>53</v>
@@ -3978,23 +3971,23 @@
     </row>
     <row r="37" spans="1:8" ht="72.5">
       <c r="A37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="D37" s="27">
         <v>1571705559</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>150</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>53</v>
@@ -4002,23 +3995,23 @@
     </row>
     <row r="38" spans="1:8" ht="72.5">
       <c r="A38" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="71"/>
+      <c r="C38" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>53</v>
@@ -4026,23 +4019,23 @@
     </row>
     <row r="39" spans="1:8" ht="72.5">
       <c r="A39" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="71"/>
+      <c r="C39" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="D39" s="27">
         <v>123456789</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>53</v>
@@ -4050,23 +4043,23 @@
     </row>
     <row r="40" spans="1:8" ht="72.5">
       <c r="A40" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="72"/>
+      <c r="C40" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="26" t="s">
+      <c r="D40" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="E40" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>53</v>
@@ -4110,324 +4103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD58A6C-B74E-48BE-A56C-49F2B81C3177}">
-  <dimension ref="B2:H49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" customWidth="1"/>
-    <col min="4" max="4" width="53.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" style="84" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1"/>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-    </row>
-    <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B5" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="92" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B6" s="89">
-        <v>1</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="92" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B7" s="89">
-        <v>2</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="95" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B8" s="89">
-        <v>3</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="95" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B9" s="89">
-        <v>4</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B10" s="89">
-        <v>5</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="95" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="89">
-        <v>6</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" s="95" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B12" s="89">
-        <v>7</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="95" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B13" s="89">
-        <v>8</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B14" s="89">
-        <v>9</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B15" s="89">
-        <v>10</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="95" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B16" s="89">
-        <v>11</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="96"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="96"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="96"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="96"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="96"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="96"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="96"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="96"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="96"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="96"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="96"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="96"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="96"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="96"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="96"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="96"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="96"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="96"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="96"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="96"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="96"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="96"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="96"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="96"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="96"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="96"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="96"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="96"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="96"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="96"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="96"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="96"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="96"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB33796-B33C-4B30-9397-AD6331164DA7}">
   <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4443,60 +4123,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" thickBot="1">
-      <c r="B1" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
       <c r="K1" s="29"/>
     </row>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="2:16" ht="16" thickBot="1">
       <c r="B3" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="I3" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="I3" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1">
       <c r="B4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
       <c r="I4" s="34">
         <v>27</v>
       </c>
@@ -4508,15 +4188,15 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1">
       <c r="B5" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
       <c r="I5" s="34">
         <v>7</v>
       </c>
@@ -4528,85 +4208,85 @@
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
       <c r="B6" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
       <c r="I6" s="38"/>
       <c r="J6" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="M6" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="N6" s="41" t="s">
         <v>174</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>175</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+        <v>175</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
       <c r="I7" s="34">
         <v>0</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="36"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
       <c r="I8" s="34">
         <v>0</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
     </row>
     <row r="10" spans="2:16" ht="46.5">
       <c r="B10" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>10</v>
@@ -4615,13 +4295,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>183</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>184</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -4683,55 +4363,55 @@
       <c r="P13" s="45"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="56" t="s">
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="86" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="57"/>
       <c r="F16" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4752,4 +4432,317 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD58A6C-B74E-48BE-A56C-49F2B81C3177}">
+  <dimension ref="B2:H49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" thickBot="1"/>
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B5" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="65" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B6" s="62">
+        <v>1</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="65" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B7" s="62">
+        <v>2</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="68" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B8" s="62">
+        <v>3</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B9" s="62">
+        <v>4</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B10" s="62">
+        <v>5</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="68" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="62">
+        <v>6</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B12" s="62">
+        <v>7</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B13" s="62">
+        <v>8</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B14" s="62">
+        <v>9</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B15" s="62">
+        <v>10</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B16" s="62">
+        <v>11</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="69"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="69"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="69"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="69"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="69"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="69"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="69"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="69"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="69"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="69"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="69"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="69"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="69"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="69"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="69"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="69"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="69"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="69"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="69"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="69"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="69"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="69"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="69"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="69"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="69"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="69"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="69"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="69"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="69"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="69"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="69"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="69"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Manual Testing of Pickaboo.xlsx
+++ b/Manual Testing of Pickaboo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dipa\SQA\1.MANUAL TESTING\Working Projects on Manual Testing\Manual Testing of Pickaboo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1A052-3744-4405-9210-CB33959B2D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC3736B-883C-4B04-8BFE-C7152EA9EE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{E1E52708-A689-4563-93BF-4E74A66FDF76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E1E52708-A689-4563-93BF-4E74A66FDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>Check mobile number field with more then 11 numeric number</t>
   </si>
   <si>
-    <t>more then 11 number is taking</t>
-  </si>
-  <si>
     <t>TC-15</t>
   </si>
   <si>
@@ -731,6 +728,9 @@
   </si>
   <si>
     <t>01793527330</t>
+  </si>
+  <si>
+    <t>more then 11 number is not taking</t>
   </si>
 </sst>
 </file>
@@ -1550,15 +1550,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="12" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1594,9 +1585,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1624,6 +1612,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96083904-D3CE-4A24-9416-0639A411B3CD}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2973,11 +2973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2991,20 +2991,20 @@
         <v>3</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="77"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3030,11 +3030,11 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -3058,11 +3058,11 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -3084,16 +3084,16 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -3172,7 +3172,7 @@
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="16" t="s">
         <v>39</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="16" t="s">
         <v>43</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="16" t="s">
         <v>48</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="A11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="16" t="s">
         <v>55</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="16" t="s">
         <v>60</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="A13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="A15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="16" t="s">
         <v>74</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="A16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="16" t="s">
         <v>77</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="A17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="21" t="s">
         <v>80</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="A18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="71"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="16" t="s">
         <v>84</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="A19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="16" t="s">
         <v>87</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="A20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="71"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="16" t="s">
         <v>90</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>81</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>53</v>
@@ -3537,23 +3537,23 @@
     </row>
     <row r="21" spans="1:13" ht="72.5">
       <c r="A21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="D21" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>53</v>
@@ -3565,11 +3565,13 @@
     </row>
     <row r="22" spans="1:13" ht="72.5">
       <c r="A22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="D22" s="17">
         <v>123456789</v>
@@ -3578,10 +3580,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>53</v>
@@ -3593,23 +3595,23 @@
     </row>
     <row r="23" spans="1:13" ht="72.5">
       <c r="A23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>37</v>
@@ -3621,23 +3623,23 @@
     </row>
     <row r="24" spans="1:13" ht="72.5">
       <c r="A24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="100"/>
+      <c r="C24" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>53</v>
@@ -3649,23 +3651,23 @@
     </row>
     <row r="25" spans="1:13" ht="72.5">
       <c r="A25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>53</v>
@@ -3677,23 +3679,23 @@
     </row>
     <row r="26" spans="1:13" ht="72.5">
       <c r="A26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="100"/>
+      <c r="C26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>53</v>
@@ -3705,11 +3707,11 @@
     </row>
     <row r="27" spans="1:13" ht="72.5">
       <c r="A27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="100"/>
+      <c r="C27" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D27" s="17">
         <v>123456789</v>
@@ -3718,10 +3720,10 @@
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>53</v>
@@ -3733,23 +3735,23 @@
     </row>
     <row r="28" spans="1:13" ht="72.5">
       <c r="A28" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="100"/>
+      <c r="C28" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="D28" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>53</v>
@@ -3761,11 +3763,11 @@
     </row>
     <row r="29" spans="1:13" ht="72.5">
       <c r="A29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="100"/>
+      <c r="C29" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -3774,10 +3776,10 @@
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>53</v>
@@ -3789,23 +3791,23 @@
     </row>
     <row r="30" spans="1:13" ht="72.5">
       <c r="A30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>53</v>
@@ -3817,23 +3819,23 @@
     </row>
     <row r="31" spans="1:13" ht="72.5">
       <c r="A31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="100"/>
+      <c r="C31" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>53</v>
@@ -3845,23 +3847,23 @@
     </row>
     <row r="32" spans="1:13" ht="72.5">
       <c r="A32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="100"/>
+      <c r="C32" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>37</v>
@@ -3873,25 +3875,23 @@
     </row>
     <row r="33" spans="1:8" ht="72.5">
       <c r="A33" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="D33" s="27">
         <v>123456789</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="G33" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>53</v>
@@ -3899,23 +3899,23 @@
     </row>
     <row r="34" spans="1:8" ht="72.5">
       <c r="A34" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="100"/>
+      <c r="C34" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="D34" s="27">
         <v>1793527440</v>
       </c>
       <c r="E34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="G34" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>53</v>
@@ -3923,23 +3923,23 @@
     </row>
     <row r="35" spans="1:8" ht="72.5">
       <c r="A35" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="100"/>
+      <c r="C35" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="D35" s="27">
         <v>12345678912</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="G35" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>53</v>
@@ -3947,23 +3947,23 @@
     </row>
     <row r="36" spans="1:8" ht="72.5">
       <c r="A36" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="100"/>
+      <c r="C36" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>145</v>
-      </c>
       <c r="E36" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="G36" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>53</v>
@@ -3971,23 +3971,23 @@
     </row>
     <row r="37" spans="1:8" ht="72.5">
       <c r="A37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="D37" s="27">
         <v>1571705559</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>148</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>149</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>53</v>
@@ -3995,23 +3995,23 @@
     </row>
     <row r="38" spans="1:8" ht="72.5">
       <c r="A38" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="100"/>
+      <c r="C38" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="26" t="s">
+      <c r="D38" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="27" t="s">
+      <c r="G38" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>53</v>
@@ -4019,23 +4019,23 @@
     </row>
     <row r="39" spans="1:8" ht="72.5">
       <c r="A39" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="100"/>
+      <c r="C39" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="D39" s="27">
         <v>123456789</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>53</v>
@@ -4043,23 +4043,23 @@
     </row>
     <row r="40" spans="1:8" ht="72.5">
       <c r="A40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="101"/>
+      <c r="C40" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="26" t="s">
+      <c r="D40" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="E40" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>160</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>53</v>
@@ -4067,8 +4067,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B7:B32"/>
-    <mergeCell ref="B33:B40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:C2"/>
@@ -4076,6 +4074,8 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B22:B40"/>
+    <mergeCell ref="B7:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -4106,7 +4106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB33796-B33C-4B30-9397-AD6331164DA7}">
   <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -4123,60 +4123,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" thickBot="1">
-      <c r="B1" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="91"/>
+      <c r="B1" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
       <c r="K1" s="29"/>
     </row>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="2:16" ht="16" thickBot="1">
       <c r="B3" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="I3" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="I3" s="32" t="s">
-        <v>165</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1">
       <c r="B4" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
       <c r="I4" s="34">
         <v>27</v>
       </c>
@@ -4188,15 +4188,15 @@
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1">
       <c r="B5" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="34">
         <v>7</v>
       </c>
@@ -4208,85 +4208,85 @@
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1">
       <c r="B6" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
       <c r="I6" s="38"/>
       <c r="J6" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="M6" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="N6" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>174</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
+        <v>174</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
       <c r="I7" s="34">
         <v>0</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="O7" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="36"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
       <c r="I8" s="34">
         <v>0</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="2:16" ht="46.5">
       <c r="B10" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>10</v>
@@ -4295,13 +4295,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>183</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -4363,55 +4363,55 @@
       <c r="P13" s="45"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="84"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="56" t="s">
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="82" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="57"/>
       <c r="F16" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="G16" s="57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="57"/>
       <c r="F17" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4453,37 +4453,37 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="D5" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="E5" s="61" t="s">
         <v>194</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="65" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
@@ -4491,13 +4491,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>197</v>
-      </c>
       <c r="E6" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="65" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
@@ -4505,13 +4505,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>199</v>
-      </c>
       <c r="E7" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="68" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
@@ -4519,13 +4519,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>201</v>
-      </c>
       <c r="E8" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
@@ -4533,13 +4533,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>203</v>
-      </c>
       <c r="E9" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
@@ -4547,13 +4547,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>205</v>
-      </c>
       <c r="E10" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="68" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
@@ -4561,13 +4561,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>207</v>
-      </c>
       <c r="E11" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
@@ -4575,13 +4575,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="67" t="s">
-        <v>209</v>
-      </c>
       <c r="E12" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
@@ -4589,13 +4589,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>211</v>
-      </c>
       <c r="E13" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
@@ -4603,13 +4603,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>213</v>
-      </c>
       <c r="E14" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
@@ -4617,13 +4617,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="67" t="s">
-        <v>215</v>
-      </c>
       <c r="E15" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
@@ -4631,13 +4631,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>217</v>
-      </c>
       <c r="E16" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:2">
